--- a/Code/Results/Cases/Case_1_140/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_140/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.964967740108079</v>
+        <v>1.119469525981856</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.3278185979176413</v>
+        <v>0.146687881761963</v>
       </c>
       <c r="E2">
-        <v>3.708554128976971</v>
+        <v>0.9711777002425777</v>
       </c>
       <c r="F2">
-        <v>7.049494887415534</v>
+        <v>3.070198749417898</v>
       </c>
       <c r="G2">
-        <v>0.0006715943418682159</v>
+        <v>0.002445183993796917</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3504507088332574</v>
+        <v>0.9771647811360893</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.568114780112637</v>
+        <v>0.6247812563319712</v>
       </c>
       <c r="M2">
-        <v>0.8590115752518912</v>
+        <v>0.4085086584114563</v>
       </c>
       <c r="N2">
-        <v>0.7365560580095334</v>
+        <v>1.5957035386879</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.698680323094237</v>
+        <v>1.057582331412334</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2767303844338471</v>
+        <v>0.1380998653737322</v>
       </c>
       <c r="E3">
-        <v>3.138129878532425</v>
+        <v>0.8453846020535991</v>
       </c>
       <c r="F3">
-        <v>5.967599781909371</v>
+        <v>2.8753568839671</v>
       </c>
       <c r="G3">
-        <v>0.000692980162234348</v>
+        <v>0.002456384319351232</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3671417233410743</v>
+        <v>0.9918490271771176</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.334771821655977</v>
+        <v>0.5755172734001803</v>
       </c>
       <c r="M3">
-        <v>0.7369352473882458</v>
+        <v>0.3815036868041872</v>
       </c>
       <c r="N3">
-        <v>0.8017750620978354</v>
+        <v>1.617242365448178</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.539365706921927</v>
+        <v>1.020129839105323</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2475931019166353</v>
+        <v>0.1329827212799586</v>
       </c>
       <c r="E4">
-        <v>2.805422116659145</v>
+        <v>0.7682222770407208</v>
       </c>
       <c r="F4">
-        <v>5.344218546950401</v>
+        <v>2.758611451409934</v>
       </c>
       <c r="G4">
-        <v>0.0007060545119277516</v>
+        <v>0.002463597821144785</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3792822008797749</v>
+        <v>1.001507900721144</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.197704446377173</v>
+        <v>0.5456834474105676</v>
       </c>
       <c r="M4">
-        <v>0.6645600426231084</v>
+        <v>0.365157621814582</v>
       </c>
       <c r="N4">
-        <v>0.8428293847599235</v>
+        <v>1.631148374903223</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.475299461913778</v>
+        <v>1.005003981176742</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2361699523599157</v>
+        <v>0.1309354916689358</v>
       </c>
       <c r="E5">
-        <v>2.673275098632502</v>
+        <v>0.7367879808349898</v>
       </c>
       <c r="F5">
-        <v>5.098452120742451</v>
+        <v>2.711742033140354</v>
       </c>
       <c r="G5">
-        <v>0.0007113898358704913</v>
+        <v>0.002466622437945579</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.384657527819634</v>
+        <v>1.005604860675973</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.143098724208841</v>
+        <v>0.5336272144340626</v>
       </c>
       <c r="M5">
-        <v>0.6355895458153427</v>
+        <v>0.3585545619886901</v>
       </c>
       <c r="N5">
-        <v>0.8598246957274469</v>
+        <v>1.636986596506382</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.4647079570301</v>
+        <v>1.002500547792209</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2342975854982257</v>
+        <v>0.1305978152654887</v>
       </c>
       <c r="E6">
-        <v>2.651515231810379</v>
+        <v>0.7315686861136186</v>
       </c>
       <c r="F6">
-        <v>5.05809121970654</v>
+        <v>2.704001395610646</v>
       </c>
       <c r="G6">
-        <v>0.0007122767555188615</v>
+        <v>0.002467129823544578</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3855747080048566</v>
+        <v>1.006294854392571</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.134099157949834</v>
+        <v>0.5316313199290619</v>
       </c>
       <c r="M6">
-        <v>0.6308074082639337</v>
+        <v>0.3574616084147237</v>
       </c>
       <c r="N6">
-        <v>0.862663044532745</v>
+        <v>1.637966385973677</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.53849845456034</v>
+        <v>1.019925295864482</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2474373493211033</v>
+        <v>0.1329549590873995</v>
       </c>
       <c r="E7">
-        <v>2.803627158434836</v>
+        <v>0.7677983143597942</v>
       </c>
       <c r="F7">
-        <v>5.340872933948646</v>
+        <v>2.757976525713474</v>
       </c>
       <c r="G7">
-        <v>0.0007061264107418131</v>
+        <v>0.00246363826711925</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.379353018487194</v>
+        <v>1.001562503250376</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.196963314210251</v>
+        <v>0.5455204465142458</v>
       </c>
       <c r="M7">
-        <v>0.6641673663023369</v>
+        <v>0.365068336746674</v>
       </c>
       <c r="N7">
-        <v>0.8430575027157055</v>
+        <v>1.63122641696204</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.872150575922319</v>
+        <v>1.09801670701313</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.309665105373341</v>
+        <v>0.1436936599071146</v>
       </c>
       <c r="E8">
-        <v>3.507566533156307</v>
+        <v>0.9277831744423395</v>
       </c>
       <c r="F8">
-        <v>6.666595899528176</v>
+        <v>3.002404980867453</v>
       </c>
       <c r="G8">
-        <v>0.0006789946444926107</v>
+        <v>0.002448976307862116</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3557813048229939</v>
+        <v>0.982094084672859</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.486160120094951</v>
+        <v>0.6077072153707377</v>
       </c>
       <c r="M8">
-        <v>0.8162992935421371</v>
+        <v>0.3991479162577747</v>
       </c>
       <c r="N8">
-        <v>0.7588423294427855</v>
+        <v>1.602988854606171</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.571564643499755</v>
+        <v>1.255550155457001</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.4563391347864609</v>
+        <v>0.1660440962434251</v>
       </c>
       <c r="E9">
-        <v>5.088906033509659</v>
+        <v>1.242534771140043</v>
       </c>
       <c r="F9">
-        <v>9.716856204324841</v>
+        <v>3.505637742957617</v>
       </c>
       <c r="G9">
-        <v>0.0006239855070557677</v>
+        <v>0.002422873114468161</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3273729411570159</v>
+        <v>0.9490484715132794</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.121679282280326</v>
+        <v>0.7330854044718649</v>
       </c>
       <c r="M9">
-        <v>1.142803627908137</v>
+        <v>0.4678944528660409</v>
       </c>
       <c r="N9">
-        <v>0.600859687221881</v>
+        <v>1.553012280606843</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.137890848972347</v>
+        <v>1.374070197888955</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5944958310110735</v>
+        <v>0.183331478721044</v>
       </c>
       <c r="E10">
-        <v>6.511129227340206</v>
+        <v>1.475029877441244</v>
       </c>
       <c r="F10">
-        <v>12.50819044691286</v>
+        <v>3.891381590038122</v>
       </c>
       <c r="G10">
-        <v>0.0005794914438997568</v>
+        <v>0.002405280560645509</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3230293326895222</v>
+        <v>0.9279435212345106</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.671704270348101</v>
+        <v>0.8275022124985014</v>
       </c>
       <c r="M10">
-        <v>1.416311533701005</v>
+        <v>0.519649319313146</v>
       </c>
       <c r="N10">
-        <v>0.4869523964485758</v>
+        <v>1.519574821747156</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.417360894482727</v>
+        <v>1.428615402928529</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6708296512161098</v>
+        <v>0.1914019243054952</v>
       </c>
       <c r="E11">
-        <v>7.276890111890538</v>
+        <v>1.581210537968587</v>
       </c>
       <c r="F11">
-        <v>14.01906883226411</v>
+        <v>4.070671029418179</v>
       </c>
       <c r="G11">
-        <v>0.0005570415073488634</v>
+        <v>0.002397615109945406</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3269124033151627</v>
+        <v>0.9190415304297588</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.957942753200626</v>
+        <v>0.8710024941111101</v>
       </c>
       <c r="M11">
-        <v>1.555078842951261</v>
+        <v>0.543482706759832</v>
       </c>
       <c r="N11">
-        <v>0.434461397412818</v>
+        <v>1.505073610259544</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.52803502881892</v>
+        <v>1.449362578087573</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.7028587232793484</v>
+        <v>0.1944891419676082</v>
       </c>
       <c r="E12">
-        <v>7.594681961164326</v>
+        <v>1.621490083811381</v>
       </c>
       <c r="F12">
-        <v>14.64650047363961</v>
+        <v>4.139138491511005</v>
       </c>
       <c r="G12">
-        <v>0.0005479966263984736</v>
+        <v>0.002394760423021352</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3295835608964666</v>
+        <v>0.9157719391111101</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3.074530099920366</v>
+        <v>0.8875578268455513</v>
       </c>
       <c r="M12">
-        <v>1.610858763410775</v>
+        <v>0.5525508906111156</v>
       </c>
       <c r="N12">
-        <v>0.4142738522063567</v>
+        <v>1.499684329684882</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.503941709934679</v>
+        <v>1.444890181919845</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.6957916839192251</v>
+        <v>0.1938228470463343</v>
       </c>
       <c r="E13">
-        <v>7.524729594644356</v>
+        <v>1.61281181206013</v>
       </c>
       <c r="F13">
-        <v>14.50839205120275</v>
+        <v>4.12436682375602</v>
       </c>
       <c r="G13">
-        <v>0.0005499745002769801</v>
+        <v>0.002395373101594613</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3289461765544104</v>
+        <v>0.9164715794476237</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3.048980832034857</v>
+        <v>0.8839886006034874</v>
       </c>
       <c r="M13">
-        <v>1.598672648265946</v>
+        <v>0.5505959610951408</v>
       </c>
       <c r="N13">
-        <v>0.418641037380759</v>
+        <v>1.500840471025498</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.426354469846444</v>
+        <v>1.430320430911195</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.6733917511620007</v>
+        <v>0.1916552795225641</v>
       </c>
       <c r="E14">
-        <v>7.302383600933695</v>
+        <v>1.584522867178208</v>
       </c>
       <c r="F14">
-        <v>14.06940055903505</v>
+        <v>4.07629222295509</v>
       </c>
       <c r="G14">
-        <v>0.0005563102432205772</v>
+        <v>0.002397379292779954</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3271050897636698</v>
+        <v>0.918770501645227</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.967344167437972</v>
+        <v>0.8723628318743692</v>
       </c>
       <c r="M14">
-        <v>1.55959306313494</v>
+        <v>0.5442278822350914</v>
       </c>
       <c r="N14">
-        <v>0.4328087078763545</v>
+        <v>1.504628186560979</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.379533472280002</v>
+        <v>1.421408077007129</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6601293325799134</v>
+        <v>0.1903316776154327</v>
       </c>
       <c r="E15">
-        <v>7.170279496480532</v>
+        <v>1.567204687790479</v>
       </c>
       <c r="F15">
-        <v>13.80859785273071</v>
+        <v>4.046920743221222</v>
       </c>
       <c r="G15">
-        <v>0.0005601104905376182</v>
+        <v>0.002398614386484845</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3261487429039036</v>
+        <v>0.9201918907432045</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.918536202907973</v>
+        <v>0.8652525971293414</v>
       </c>
       <c r="M15">
-        <v>1.536126614143228</v>
+        <v>0.5403328896003217</v>
       </c>
       <c r="N15">
-        <v>0.4414368305814378</v>
+        <v>1.506961556042427</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.12018624829625</v>
+        <v>1.370518342527475</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5898606679358807</v>
+        <v>0.1828083304801282</v>
       </c>
       <c r="E16">
-        <v>6.464218845182586</v>
+        <v>1.468100070632715</v>
       </c>
       <c r="F16">
-        <v>12.41573801875927</v>
+        <v>3.879743542804249</v>
       </c>
       <c r="G16">
-        <v>0.0005808984513274076</v>
+        <v>0.002405788266464819</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3229189267335357</v>
+        <v>0.9285394260616897</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.653933400849382</v>
+        <v>0.8246707385091554</v>
       </c>
       <c r="M16">
-        <v>1.407613300320179</v>
+        <v>0.5180976952500771</v>
       </c>
       <c r="N16">
-        <v>0.4903547774022954</v>
+        <v>1.520536786923913</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.967568627325704</v>
+        <v>1.339461512083574</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5508099435431006</v>
+        <v>0.1782468603051939</v>
       </c>
       <c r="E17">
-        <v>6.066957149194025</v>
+        <v>1.40741736729538</v>
       </c>
       <c r="F17">
-        <v>11.63358437801566</v>
+        <v>3.778180618193858</v>
       </c>
       <c r="G17">
-        <v>0.0005929699164104366</v>
+        <v>0.002410275310640753</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.32262815263649</v>
+        <v>0.9338399834103868</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.502389309467191</v>
+        <v>0.7999184324536373</v>
       </c>
       <c r="M17">
-        <v>1.3330541021285</v>
+        <v>0.5045322805391805</v>
       </c>
       <c r="N17">
-        <v>0.5200870156906241</v>
+        <v>1.529046483233898</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.881702772463143</v>
+        <v>1.321657632719109</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5295195566343978</v>
+        <v>0.1756425547520735</v>
       </c>
       <c r="E18">
-        <v>5.848746839059515</v>
+        <v>1.372552881709254</v>
       </c>
       <c r="F18">
-        <v>11.20468634451322</v>
+        <v>3.720121555422992</v>
       </c>
       <c r="G18">
-        <v>0.0005997239675001875</v>
+        <v>0.002412887934928437</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3229831254192632</v>
+        <v>0.9369544377435162</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.418366322725745</v>
+        <v>0.7857330635125948</v>
       </c>
       <c r="M18">
-        <v>1.291423316492413</v>
+        <v>0.4967570118426323</v>
       </c>
       <c r="N18">
-        <v>0.5371429368471752</v>
+        <v>1.534007832994625</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.852923991823161</v>
+        <v>1.315639665720198</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.52248838989928</v>
+        <v>0.1747640585422516</v>
       </c>
       <c r="E19">
-        <v>5.776416731883927</v>
+        <v>1.360754660764428</v>
       </c>
       <c r="F19">
-        <v>11.06265583697854</v>
+        <v>3.700524327394902</v>
       </c>
       <c r="G19">
-        <v>0.000601982821228735</v>
+        <v>0.002413777999805343</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3231854573543131</v>
+        <v>0.9380201972809488</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.390395918469579</v>
+        <v>0.7809388767155667</v>
       </c>
       <c r="M19">
-        <v>1.277519317484902</v>
+        <v>0.4941290715808293</v>
       </c>
       <c r="N19">
-        <v>0.5429140615189709</v>
+        <v>1.535699134546633</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.983607944577898</v>
+        <v>1.342761428214828</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5548398484891663</v>
+        <v>0.1787304255388165</v>
       </c>
       <c r="E20">
-        <v>6.108127961921554</v>
+        <v>1.41387306979172</v>
       </c>
       <c r="F20">
-        <v>11.7145703463797</v>
+        <v>3.788955004376078</v>
       </c>
       <c r="G20">
-        <v>0.0005917056054442145</v>
+        <v>0.002409794369680357</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3226031693863405</v>
+        <v>0.9332689223091108</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.518180949447753</v>
+        <v>0.8025480010383603</v>
       </c>
       <c r="M20">
-        <v>1.340855307076311</v>
+        <v>0.5059735177063942</v>
       </c>
       <c r="N20">
-        <v>0.5169276849352045</v>
+        <v>1.528133698532557</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.448991977204116</v>
+        <v>1.434597408151831</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.6798719750371447</v>
+        <v>0.192291090446048</v>
       </c>
       <c r="E21">
-        <v>7.366806302367308</v>
+        <v>1.592829991484336</v>
       </c>
       <c r="F21">
-        <v>14.1965928027542</v>
+        <v>4.090397095340279</v>
       </c>
       <c r="G21">
-        <v>0.0005544667755480101</v>
+        <v>0.0023967887253483</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3276090888628787</v>
+        <v>0.918092493071093</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.991064156272188</v>
+        <v>0.8757753269203761</v>
       </c>
       <c r="M21">
-        <v>1.570969975642456</v>
+        <v>0.5460971636569099</v>
       </c>
       <c r="N21">
-        <v>0.4286584317078024</v>
+        <v>1.503512874284567</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.783512083301559</v>
+        <v>1.49515506366248</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.7813462895961152</v>
+        <v>0.2013358355701484</v>
       </c>
       <c r="E22">
-        <v>8.365658599138897</v>
+        <v>1.710209382725992</v>
       </c>
       <c r="F22">
-        <v>16.16771896608975</v>
+        <v>4.290767995566114</v>
       </c>
       <c r="G22">
-        <v>0.000526666378426322</v>
+        <v>0.002388568647999455</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3383096073370595</v>
+        <v>0.908765296390996</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3.351742678580962</v>
+        <v>0.9241175797859853</v>
       </c>
       <c r="M22">
-        <v>1.741681240322251</v>
+        <v>0.5725715564791898</v>
       </c>
       <c r="N22">
-        <v>0.3688603056689175</v>
+        <v>1.488016347669628</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.601182913097773</v>
+        <v>1.462784595491314</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.7246513091007216</v>
+        <v>0.1964913360558285</v>
       </c>
       <c r="E23">
-        <v>7.809819582052739</v>
+        <v>1.647519491302631</v>
       </c>
       <c r="F23">
-        <v>15.07120380052908</v>
+        <v>4.183509857233787</v>
       </c>
       <c r="G23">
-        <v>0.0005419589991259564</v>
+        <v>0.002392930410252799</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3317116889780323</v>
+        <v>0.913688966639377</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3.15269795205333</v>
+        <v>0.8982708742390173</v>
       </c>
       <c r="M23">
-        <v>1.648009055929307</v>
+        <v>0.5584182340767825</v>
       </c>
       <c r="N23">
-        <v>0.4011065325834124</v>
+        <v>1.496232737346219</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.976350832478261</v>
+        <v>1.341269377061451</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5530143870485347</v>
+        <v>0.178511749289811</v>
       </c>
       <c r="E24">
-        <v>6.089483587943505</v>
+        <v>1.410954376491048</v>
       </c>
       <c r="F24">
-        <v>11.67789316547413</v>
+        <v>3.784082875937798</v>
       </c>
       <c r="G24">
-        <v>0.0005922777657617998</v>
+        <v>0.002410011700576112</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3226128606508567</v>
+        <v>0.9335268901215983</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.511032075110933</v>
+        <v>0.8013590330019156</v>
       </c>
       <c r="M24">
-        <v>1.337324610615383</v>
+        <v>0.5053218607586842</v>
       </c>
       <c r="N24">
-        <v>0.5183561224564066</v>
+        <v>1.52854615353651</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.375514702255771</v>
+        <v>1.212452432079488</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4128245810694011</v>
+        <v>0.1598513867467091</v>
       </c>
       <c r="E25">
-        <v>4.628909768077449</v>
+        <v>1.157213443027331</v>
       </c>
       <c r="F25">
-        <v>8.821830343147383</v>
+        <v>3.366793769452329</v>
       </c>
       <c r="G25">
-        <v>0.0006392929773672424</v>
+        <v>0.002429654157485012</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3326855560581521</v>
+        <v>0.9574341915723004</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.939158460639078</v>
+        <v>0.6987787217404673</v>
       </c>
       <c r="M25">
-        <v>1.050149939183726</v>
+        <v>0.4490835687916288</v>
       </c>
       <c r="N25">
-        <v>0.6429887238896335</v>
+        <v>1.565955533702635</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_140/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_140/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.119469525981856</v>
+        <v>1.964967740108108</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.146687881761963</v>
+        <v>0.3278185979172434</v>
       </c>
       <c r="E2">
-        <v>0.9711777002425777</v>
+        <v>3.708554128976971</v>
       </c>
       <c r="F2">
-        <v>3.070198749417898</v>
+        <v>7.049494887415563</v>
       </c>
       <c r="G2">
-        <v>0.002445183993796917</v>
+        <v>0.0006715943417744245</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9771647811360893</v>
+        <v>0.3504507088332502</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.6247812563319712</v>
+        <v>1.568114780112666</v>
       </c>
       <c r="M2">
-        <v>0.4085086584114563</v>
+        <v>0.859011575251877</v>
       </c>
       <c r="N2">
-        <v>1.5957035386879</v>
+        <v>0.7365560580095298</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.057582331412334</v>
+        <v>1.698680323094038</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1380998653737322</v>
+        <v>0.2767303844338187</v>
       </c>
       <c r="E3">
-        <v>0.8453846020535991</v>
+        <v>3.138129878532453</v>
       </c>
       <c r="F3">
-        <v>2.8753568839671</v>
+        <v>5.967599781909399</v>
       </c>
       <c r="G3">
-        <v>0.002456384319351232</v>
+        <v>0.0006929801622308496</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9918490271771176</v>
+        <v>0.3671417233410672</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.5755172734001803</v>
+        <v>1.334771821656034</v>
       </c>
       <c r="M3">
-        <v>0.3815036868041872</v>
+        <v>0.73693524738826</v>
       </c>
       <c r="N3">
-        <v>1.617242365448178</v>
+        <v>0.8017750620978816</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.020129839105323</v>
+        <v>1.539365706921927</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1329827212799586</v>
+        <v>0.247593101916479</v>
       </c>
       <c r="E4">
-        <v>0.7682222770407208</v>
+        <v>2.805422116659201</v>
       </c>
       <c r="F4">
-        <v>2.758611451409934</v>
+        <v>5.34421854695043</v>
       </c>
       <c r="G4">
-        <v>0.002463597821144785</v>
+        <v>0.0007060545120126437</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.001507900721144</v>
+        <v>0.3792822008797749</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.5456834474105676</v>
+        <v>1.197704446377202</v>
       </c>
       <c r="M4">
-        <v>0.365157621814582</v>
+        <v>0.6645600426231084</v>
       </c>
       <c r="N4">
-        <v>1.631148374903223</v>
+        <v>0.8428293847599093</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.005003981176742</v>
+        <v>1.475299461913636</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1309354916689358</v>
+        <v>0.2361699523596883</v>
       </c>
       <c r="E5">
-        <v>0.7367879808349898</v>
+        <v>2.673275098632516</v>
       </c>
       <c r="F5">
-        <v>2.711742033140354</v>
+        <v>5.098452120742479</v>
       </c>
       <c r="G5">
-        <v>0.002466622437945579</v>
+        <v>0.0007113898359510935</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.005604860675973</v>
+        <v>0.3846575278196234</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.5336272144340626</v>
+        <v>1.143098724208869</v>
       </c>
       <c r="M5">
-        <v>0.3585545619886901</v>
+        <v>0.6355895458153356</v>
       </c>
       <c r="N5">
-        <v>1.636986596506382</v>
+        <v>0.8598246957274327</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.002500547792209</v>
+        <v>1.464707957030186</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1305978152654887</v>
+        <v>0.234297585498382</v>
       </c>
       <c r="E6">
-        <v>0.7315686861136186</v>
+        <v>2.651515231810365</v>
       </c>
       <c r="F6">
-        <v>2.704001395610646</v>
+        <v>5.058091219706597</v>
       </c>
       <c r="G6">
-        <v>0.002467129823544578</v>
+        <v>0.000712276755517152</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.006294854392571</v>
+        <v>0.3855747080048637</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.5316313199290619</v>
+        <v>1.134099157950033</v>
       </c>
       <c r="M6">
-        <v>0.3574616084147237</v>
+        <v>0.630807408263955</v>
       </c>
       <c r="N6">
-        <v>1.637966385973677</v>
+        <v>0.8626630445327272</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.019925295864482</v>
+        <v>1.538498454560255</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1329549590873995</v>
+        <v>0.2474373493210891</v>
       </c>
       <c r="E7">
-        <v>0.7677983143597942</v>
+        <v>2.803627158434864</v>
       </c>
       <c r="F7">
-        <v>2.757976525713474</v>
+        <v>5.340872933948646</v>
       </c>
       <c r="G7">
-        <v>0.00246363826711925</v>
+        <v>0.0007061264108255025</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.001562503250376</v>
+        <v>0.379353018487194</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5455204465142458</v>
+        <v>1.196963314210251</v>
       </c>
       <c r="M7">
-        <v>0.365068336746674</v>
+        <v>0.6641673663023511</v>
       </c>
       <c r="N7">
-        <v>1.63122641696204</v>
+        <v>0.8430575027157161</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.09801670701313</v>
+        <v>1.872150575922348</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1436936599071146</v>
+        <v>0.30966510537354</v>
       </c>
       <c r="E8">
-        <v>0.9277831744423395</v>
+        <v>3.50756653315625</v>
       </c>
       <c r="F8">
-        <v>3.002404980867453</v>
+        <v>6.666595899528176</v>
       </c>
       <c r="G8">
-        <v>0.002448976307862116</v>
+        <v>0.0006789946446371689</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.982094084672859</v>
+        <v>0.3557813048229939</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.6077072153707377</v>
+        <v>1.486160120094866</v>
       </c>
       <c r="M8">
-        <v>0.3991479162577747</v>
+        <v>0.81629929354213</v>
       </c>
       <c r="N8">
-        <v>1.602988854606171</v>
+        <v>0.7588423294427145</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.255550155457001</v>
+        <v>2.571564643499698</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1660440962434251</v>
+        <v>0.4563391347866741</v>
       </c>
       <c r="E9">
-        <v>1.242534771140043</v>
+        <v>5.088906033509602</v>
       </c>
       <c r="F9">
-        <v>3.505637742957617</v>
+        <v>9.716856204324813</v>
       </c>
       <c r="G9">
-        <v>0.002422873114468161</v>
+        <v>0.0006239855068486243</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9490484715132794</v>
+        <v>0.3273729411570017</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.7330854044718649</v>
+        <v>2.121679282280326</v>
       </c>
       <c r="M9">
-        <v>0.4678944528660409</v>
+        <v>1.142803627908123</v>
       </c>
       <c r="N9">
-        <v>1.553012280606843</v>
+        <v>0.6008596872218881</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.374070197888955</v>
+        <v>3.137890848972233</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.183331478721044</v>
+        <v>0.5944958310106756</v>
       </c>
       <c r="E10">
-        <v>1.475029877441244</v>
+        <v>6.511129227340177</v>
       </c>
       <c r="F10">
-        <v>3.891381590038122</v>
+        <v>12.50819044691286</v>
       </c>
       <c r="G10">
-        <v>0.002405280560645509</v>
+        <v>0.0005794914437880315</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9279435212345106</v>
+        <v>0.3230293326895222</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.8275022124985014</v>
+        <v>2.67170427034813</v>
       </c>
       <c r="M10">
-        <v>0.519649319313146</v>
+        <v>1.41631153370102</v>
       </c>
       <c r="N10">
-        <v>1.519574821747156</v>
+        <v>0.4869523964485758</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.428615402928529</v>
+        <v>3.417360894482783</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1914019243054952</v>
+        <v>0.6708296512161667</v>
       </c>
       <c r="E11">
-        <v>1.581210537968587</v>
+        <v>7.276890111890594</v>
       </c>
       <c r="F11">
-        <v>4.070671029418179</v>
+        <v>14.01906883226411</v>
       </c>
       <c r="G11">
-        <v>0.002397615109945406</v>
+        <v>0.0005570415072921886</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9190415304297588</v>
+        <v>0.3269124033151769</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.8710024941111101</v>
+        <v>2.957942753200598</v>
       </c>
       <c r="M11">
-        <v>0.543482706759832</v>
+        <v>1.555078842951275</v>
       </c>
       <c r="N11">
-        <v>1.505073610259544</v>
+        <v>0.4344613974128677</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.449362578087573</v>
+        <v>3.528035028819147</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1944891419676082</v>
+        <v>0.7028587232792063</v>
       </c>
       <c r="E12">
-        <v>1.621490083811381</v>
+        <v>7.594681961164127</v>
       </c>
       <c r="F12">
-        <v>4.139138491511005</v>
+        <v>14.64650047363932</v>
       </c>
       <c r="G12">
-        <v>0.002394760423021352</v>
+        <v>0.0005479966263443477</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9157719391111101</v>
+        <v>0.3295835608965021</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.8875578268455513</v>
+        <v>3.074530099920395</v>
       </c>
       <c r="M12">
-        <v>0.5525508906111156</v>
+        <v>1.610858763410789</v>
       </c>
       <c r="N12">
-        <v>1.499684329684882</v>
+        <v>0.4142738522063638</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.444890181919845</v>
+        <v>3.503941709934793</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1938228470463343</v>
+        <v>0.6957916839192251</v>
       </c>
       <c r="E13">
-        <v>1.61281181206013</v>
+        <v>7.524729594644441</v>
       </c>
       <c r="F13">
-        <v>4.12436682375602</v>
+        <v>14.50839205120286</v>
       </c>
       <c r="G13">
-        <v>0.002395373101594613</v>
+        <v>0.0005499745001836245</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9164715794476237</v>
+        <v>0.3289461765543891</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.8839886006034874</v>
+        <v>3.048980832034715</v>
       </c>
       <c r="M13">
-        <v>0.5505959610951408</v>
+        <v>1.598672648265918</v>
       </c>
       <c r="N13">
-        <v>1.500840471025498</v>
+        <v>0.4186410373807448</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.430320430911195</v>
+        <v>3.426354469846444</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1916552795225641</v>
+        <v>0.6733917511620575</v>
       </c>
       <c r="E14">
-        <v>1.584522867178208</v>
+        <v>7.302383600933666</v>
       </c>
       <c r="F14">
-        <v>4.07629222295509</v>
+        <v>14.06940055903493</v>
       </c>
       <c r="G14">
-        <v>0.002397379292779954</v>
+        <v>0.0005563102430127118</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.918770501645227</v>
+        <v>0.327105089763684</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.8723628318743692</v>
+        <v>2.967344167437972</v>
       </c>
       <c r="M14">
-        <v>0.5442278822350914</v>
+        <v>1.559593063134926</v>
       </c>
       <c r="N14">
-        <v>1.504628186560979</v>
+        <v>0.4328087078763474</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.421408077007129</v>
+        <v>3.379533472280059</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1903316776154327</v>
+        <v>0.6601293325799134</v>
       </c>
       <c r="E15">
-        <v>1.567204687790479</v>
+        <v>7.170279496480504</v>
       </c>
       <c r="F15">
-        <v>4.046920743221222</v>
+        <v>13.80859785273066</v>
       </c>
       <c r="G15">
-        <v>0.002398614386484845</v>
+        <v>0.000560110490537927</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9201918907432045</v>
+        <v>0.3261487429039036</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.8652525971293414</v>
+        <v>2.918536202907887</v>
       </c>
       <c r="M15">
-        <v>0.5403328896003217</v>
+        <v>1.536126614143242</v>
       </c>
       <c r="N15">
-        <v>1.506961556042427</v>
+        <v>0.4414368305814378</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.370518342527475</v>
+        <v>3.120186248296363</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1828083304801282</v>
+        <v>0.589860667936108</v>
       </c>
       <c r="E16">
-        <v>1.468100070632715</v>
+        <v>6.464218845182614</v>
       </c>
       <c r="F16">
-        <v>3.879743542804249</v>
+        <v>12.41573801875916</v>
       </c>
       <c r="G16">
-        <v>0.002405788266464819</v>
+        <v>0.0005808984512361004</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.9285394260616897</v>
+        <v>0.3229189267335286</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.8246707385091554</v>
+        <v>2.653933400849382</v>
       </c>
       <c r="M16">
-        <v>0.5180976952500771</v>
+        <v>1.407613300320179</v>
       </c>
       <c r="N16">
-        <v>1.520536786923913</v>
+        <v>0.4903547774023131</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.339461512083574</v>
+        <v>2.967568627325647</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1782468603051939</v>
+        <v>0.5508099435429301</v>
       </c>
       <c r="E17">
-        <v>1.40741736729538</v>
+        <v>6.066957149193996</v>
       </c>
       <c r="F17">
-        <v>3.778180618193858</v>
+        <v>11.63358437801571</v>
       </c>
       <c r="G17">
-        <v>0.002410275310640753</v>
+        <v>0.0005929699164082222</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.9338399834103868</v>
+        <v>0.3226281526365042</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7999184324536373</v>
+        <v>2.502389309467247</v>
       </c>
       <c r="M17">
-        <v>0.5045322805391805</v>
+        <v>1.333054102128528</v>
       </c>
       <c r="N17">
-        <v>1.529046483233898</v>
+        <v>0.5200870156906738</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.321657632719109</v>
+        <v>2.881702772463086</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1756425547520735</v>
+        <v>0.5295195566341988</v>
       </c>
       <c r="E18">
-        <v>1.372552881709254</v>
+        <v>5.84874683905943</v>
       </c>
       <c r="F18">
-        <v>3.720121555422992</v>
+        <v>11.20468634451308</v>
       </c>
       <c r="G18">
-        <v>0.002412887934928437</v>
+        <v>0.000599723967296349</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9369544377435162</v>
+        <v>0.3229831254192774</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.7857330635125948</v>
+        <v>2.418366322725717</v>
       </c>
       <c r="M18">
-        <v>0.4967570118426323</v>
+        <v>1.291423316492398</v>
       </c>
       <c r="N18">
-        <v>1.534007832994625</v>
+        <v>0.5371429368471752</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.315639665720198</v>
+        <v>2.852923991823218</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1747640585422516</v>
+        <v>0.522488389899479</v>
       </c>
       <c r="E19">
-        <v>1.360754660764428</v>
+        <v>5.77641673188387</v>
       </c>
       <c r="F19">
-        <v>3.700524327394902</v>
+        <v>11.06265583697854</v>
       </c>
       <c r="G19">
-        <v>0.002413777999805343</v>
+        <v>0.0006019828210231217</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9380201972809488</v>
+        <v>0.3231854573542989</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.7809388767155667</v>
+        <v>2.390395918469522</v>
       </c>
       <c r="M19">
-        <v>0.4941290715808293</v>
+        <v>1.277519317484931</v>
       </c>
       <c r="N19">
-        <v>1.535699134546633</v>
+        <v>0.5429140615189745</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.342761428214828</v>
+        <v>2.983607944577898</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1787304255388165</v>
+        <v>0.55483984848874</v>
       </c>
       <c r="E20">
-        <v>1.41387306979172</v>
+        <v>6.10812796192161</v>
       </c>
       <c r="F20">
-        <v>3.788955004376078</v>
+        <v>11.71457034637979</v>
       </c>
       <c r="G20">
-        <v>0.002409794369680357</v>
+        <v>0.0005917056053461002</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9332689223091108</v>
+        <v>0.3226031693863405</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.8025480010383603</v>
+        <v>2.518180949447753</v>
       </c>
       <c r="M20">
-        <v>0.5059735177063942</v>
+        <v>1.340855307076296</v>
       </c>
       <c r="N20">
-        <v>1.528133698532557</v>
+        <v>0.5169276849352009</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.434597408151831</v>
+        <v>3.448991977204003</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.192291090446048</v>
+        <v>0.6798719750370879</v>
       </c>
       <c r="E21">
-        <v>1.592829991484336</v>
+        <v>7.366806302367394</v>
       </c>
       <c r="F21">
-        <v>4.090397095340279</v>
+        <v>14.19659280275437</v>
       </c>
       <c r="G21">
-        <v>0.0023967887253483</v>
+        <v>0.0005544667757871503</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.918092493071093</v>
+        <v>0.3276090888628715</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.8757753269203761</v>
+        <v>2.991064156272216</v>
       </c>
       <c r="M21">
-        <v>0.5460971636569099</v>
+        <v>1.570969975642456</v>
       </c>
       <c r="N21">
-        <v>1.503512874284567</v>
+        <v>0.4286584317078521</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.49515506366248</v>
+        <v>3.783512083301559</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2013358355701484</v>
+        <v>0.7813462895958594</v>
       </c>
       <c r="E22">
-        <v>1.710209382725992</v>
+        <v>8.365658599138897</v>
       </c>
       <c r="F22">
-        <v>4.290767995566114</v>
+        <v>16.16771896608969</v>
       </c>
       <c r="G22">
-        <v>0.002388568647999455</v>
+        <v>0.0005266663785742333</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.908765296390996</v>
+        <v>0.3383096073370595</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.9241175797859853</v>
+        <v>3.35174267858082</v>
       </c>
       <c r="M22">
-        <v>0.5725715564791898</v>
+        <v>1.741681240322237</v>
       </c>
       <c r="N22">
-        <v>1.488016347669628</v>
+        <v>0.3688603056689175</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.462784595491314</v>
+        <v>3.601182913098</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1964913360558285</v>
+        <v>0.7246513091009774</v>
       </c>
       <c r="E23">
-        <v>1.647519491302631</v>
+        <v>7.809819582052768</v>
       </c>
       <c r="F23">
-        <v>4.183509857233787</v>
+        <v>15.07120380052913</v>
       </c>
       <c r="G23">
-        <v>0.002392930410252799</v>
+        <v>0.000541958999125848</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.913688966639377</v>
+        <v>0.3317116889780181</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.8982708742390173</v>
+        <v>3.152697952053273</v>
       </c>
       <c r="M23">
-        <v>0.5584182340767825</v>
+        <v>1.648009055929322</v>
       </c>
       <c r="N23">
-        <v>1.496232737346219</v>
+        <v>0.4011065325834124</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.341269377061451</v>
+        <v>2.976350832478317</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.178511749289811</v>
+        <v>0.5530143870485631</v>
       </c>
       <c r="E24">
-        <v>1.410954376491048</v>
+        <v>6.089483587943334</v>
       </c>
       <c r="F24">
-        <v>3.784082875937798</v>
+        <v>11.67789316547407</v>
       </c>
       <c r="G24">
-        <v>0.002410011700576112</v>
+        <v>0.0005922777655578165</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9335268901215983</v>
+        <v>0.3226128606508709</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.8013590330019156</v>
+        <v>2.511032075110876</v>
       </c>
       <c r="M24">
-        <v>0.5053218607586842</v>
+        <v>1.337324610615383</v>
       </c>
       <c r="N24">
-        <v>1.52854615353651</v>
+        <v>0.518356122456467</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.212452432079488</v>
+        <v>2.375514702255657</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1598513867467091</v>
+        <v>0.412824581069799</v>
       </c>
       <c r="E25">
-        <v>1.157213443027331</v>
+        <v>4.62890976807742</v>
       </c>
       <c r="F25">
-        <v>3.366793769452329</v>
+        <v>8.821830343147269</v>
       </c>
       <c r="G25">
-        <v>0.002429654157485012</v>
+        <v>0.0006392929772730047</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9574341915723004</v>
+        <v>0.3326855560581521</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6987787217404673</v>
+        <v>1.93915846063905</v>
       </c>
       <c r="M25">
-        <v>0.4490835687916288</v>
+        <v>1.050149939183719</v>
       </c>
       <c r="N25">
-        <v>1.565955533702635</v>
+        <v>0.642988723889701</v>
       </c>
       <c r="O25">
         <v>0</v>
